--- a/Linux commands.xlsx
+++ b/Linux commands.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shashankjain/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shashankjain/Desktop/Imp_notes/Summary_notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25B6746-541F-B14E-B3B2-0C2301663ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B76C37-BD27-8E4F-B766-65C20E5BF17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{3284BE38-9AAF-AA4C-96DF-D9DDDFFD684D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{3284BE38-9AAF-AA4C-96DF-D9DDDFFD684D}"/>
   </bookViews>
   <sheets>
     <sheet name="Linux Comands" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="278">
   <si>
     <t>Command</t>
   </si>
@@ -565,9 +565,6 @@
     <t>ctrl u</t>
   </si>
   <si>
-    <t>To delete the line where cursor is</t>
-  </si>
-  <si>
     <t>cmd d</t>
   </si>
   <si>
@@ -851,6 +848,30 @@
   </si>
   <si>
     <t xml:space="preserve">will be log in and in a home directroy. </t>
+  </si>
+  <si>
+    <t>ctrl + k</t>
+  </si>
+  <si>
+    <t>To delete further in the line. Whereever is your cursor is.</t>
+  </si>
+  <si>
+    <t>ctrl k</t>
+  </si>
+  <si>
+    <t>To delete the line before  where cursor is (opposite of ctrl + k)</t>
+  </si>
+  <si>
+    <t>count the number of lines in a file</t>
+  </si>
+  <si>
+    <t>wc -l &lt;name of file&gt;</t>
+  </si>
+  <si>
+    <t>wc &lt;name of file&gt;</t>
+  </si>
+  <si>
+    <t>will give 3 values 1) no. of lines 2)no. words 3) bytes in file</t>
   </si>
 </sst>
 </file>
@@ -1278,10 +1299,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:B149"/>
+  <dimension ref="A1:B153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1340,10 +1361,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1420,18 +1441,18 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1492,18 +1513,18 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -1811,7 +1832,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>112</v>
@@ -1952,18 +1973,18 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="96" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="B96" s="11" t="s">
         <v>267</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -2013,10 +2034,10 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -2066,50 +2087,50 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B123" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -2118,56 +2139,56 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B126"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A133" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B133" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2175,39 +2196,39 @@
         <v>10</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -2217,39 +2238,55 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>266</v>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -2262,57 +2299,63 @@
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.1640625" customWidth="1"/>
+    <col min="2" max="2" width="33.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" t="s">
         <v>183</v>
-      </c>
-      <c r="B4" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" t="s">
         <v>185</v>
-      </c>
-      <c r="B5" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" t="s">
         <v>187</v>
-      </c>
-      <c r="B6" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" t="s">
         <v>189</v>
       </c>
-      <c r="B7" t="s">
-        <v>190</v>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -2325,60 +2368,68 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>174</v>
+        <v>272</v>
       </c>
       <c r="B1" t="s">
-        <v>175</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B5" t="s">
-        <v>242</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B7" t="s">
         <v>243</v>
-      </c>
-      <c r="B6" t="s">
-        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2405,74 +2456,74 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" t="s">
         <v>223</v>
-      </c>
-      <c r="B2" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" t="s">
         <v>226</v>
-      </c>
-      <c r="B5" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B10" t="s">
         <v>231</v>
-      </c>
-      <c r="B10" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B13" t="s">
         <v>233</v>
-      </c>
-      <c r="B13" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>234</v>
+      </c>
+      <c r="B14" t="s">
         <v>235</v>
-      </c>
-      <c r="B14" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B15" t="s">
         <v>237</v>
-      </c>
-      <c r="B15" t="s">
-        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/Linux commands.xlsx
+++ b/Linux commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shashankjain/Desktop/Imp_notes/Summary_notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B76C37-BD27-8E4F-B766-65C20E5BF17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833BB4CE-CC91-9D40-9B7C-0597DF9478B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{3284BE38-9AAF-AA4C-96DF-D9DDDFFD684D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="288">
   <si>
     <t>Command</t>
   </si>
@@ -676,9 +676,6 @@
     <t>To reveal what does a command do in a brief summary.</t>
   </si>
   <si>
-    <t>It will give ouput as well as save in the file.</t>
-  </si>
-  <si>
     <t>It will give ouput as well as add this output in the mentioned file.</t>
   </si>
   <si>
@@ -872,6 +869,39 @@
   </si>
   <si>
     <t>will give 3 values 1) no. of lines 2)no. words 3) bytes in file</t>
+  </si>
+  <si>
+    <t>To sort the output of the file</t>
+  </si>
+  <si>
+    <t>sort -u</t>
+  </si>
+  <si>
+    <t>to provide output of unique values only</t>
+  </si>
+  <si>
+    <t>sort -n</t>
+  </si>
+  <si>
+    <t>will sort numbers</t>
+  </si>
+  <si>
+    <t>sort -k 5 ( ex. ls -lh | sort | sort -k 5)</t>
+  </si>
+  <si>
+    <t>will sort as per column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It will give ouput as well as save in the file. ( tee will send one out at 2 places) </t>
+  </si>
+  <si>
+    <t>regex extentions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*, ? .. Ex . You want a file *app?.txt (it will match all the files like moneyappg.txt, myappk.txt </t>
+  </si>
+  <si>
+    <t>[] this also work. [A-F]*.txt   means any file which starts with A to F characters</t>
   </si>
 </sst>
 </file>
@@ -1299,10 +1329,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:B153"/>
+  <dimension ref="A1:B159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A154" sqref="A154"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B160" sqref="B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1441,18 +1471,18 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1513,18 +1543,18 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>212</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -1832,7 +1862,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>112</v>
@@ -1973,18 +2003,18 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="96" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B96" s="11" t="s">
         <v>266</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -2034,10 +2064,10 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -2084,209 +2114,250 @@
       <c r="A112" s="2" t="s">
         <v>163</v>
       </c>
+      <c r="B112" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B115" s="2" t="s">
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="2" t="s">
+      <c r="B118" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="2" t="s">
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B123" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B124" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
+    <row r="125" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B125" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="6" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B126" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="6"/>
-      <c r="B125"/>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="6"/>
+      <c r="B127"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B126"/>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>203</v>
-      </c>
+      <c r="B128"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B133" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A133" s="9" t="s">
+    <row r="135" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A135" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B135" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B133" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A136" s="3" t="s">
+    </row>
+    <row r="138" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A138" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B138" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>249</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="10" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>262</v>
+      <c r="A147" s="10" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="2" t="s">
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="2" t="s">
+      <c r="B155" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>277</v>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B159" s="2" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -2355,7 +2426,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -2378,10 +2449,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2389,7 +2460,7 @@
         <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2421,15 +2492,15 @@
         <v>174</v>
       </c>
       <c r="B6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B7" t="s">
         <v>242</v>
-      </c>
-      <c r="B7" t="s">
-        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -2456,74 +2527,74 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" t="s">
         <v>222</v>
-      </c>
-      <c r="B2" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" t="s">
         <v>225</v>
-      </c>
-      <c r="B5" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" t="s">
         <v>230</v>
-      </c>
-      <c r="B10" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B13" t="s">
         <v>232</v>
-      </c>
-      <c r="B13" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B14" t="s">
         <v>234</v>
-      </c>
-      <c r="B14" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>235</v>
+      </c>
+      <c r="B15" t="s">
         <v>236</v>
-      </c>
-      <c r="B15" t="s">
-        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/Linux commands.xlsx
+++ b/Linux commands.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shashankjain/Desktop/Imp_notes/Summary_notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833BB4CE-CC91-9D40-9B7C-0597DF9478B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753C9DEA-2B15-534F-98EE-88F39B258D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{3284BE38-9AAF-AA4C-96DF-D9DDDFFD684D}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Key board sortcuts linux" sheetId="2" r:id="rId3"/>
     <sheet name="Hadoop Linux commands" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,6 +31,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="346">
   <si>
     <t>Command</t>
   </si>
@@ -902,13 +903,256 @@
   </si>
   <si>
     <t>[] this also work. [A-F]*.txt   means any file which starts with A to F characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brace extention </t>
+  </si>
+  <si>
+    <t>touch page{1..3}.txt</t>
+  </si>
+  <si>
+    <t>This will create 3 files. page1.txt,page2.txt,page3.txt</t>
+  </si>
+  <si>
+    <t>echo {a..b}{1..3}p</t>
+  </si>
+  <si>
+    <t>a1p a2p a3p b1p b2p b3p</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> echo {Mon,Tue,Wed}{1..2}</t>
+  </si>
+  <si>
+    <t>Mon1 Mon2 Tue1 Tue2 Wed1 Wed2</t>
+  </si>
+  <si>
+    <t>mkdir -p {mon,tue,wed}/{breakfast,lunch}</t>
+  </si>
+  <si>
+    <t>will create 3 directories mon,tue,wed and inside 2 directories breakfast,lunch</t>
+  </si>
+  <si>
+    <t>x y1 y2 y3 y4 y5 z</t>
+  </si>
+  <si>
+    <t>echo x y{1..5} z</t>
+  </si>
+  <si>
+    <t>echo $((1+3))</t>
+  </si>
+  <si>
+    <t>echo $((4*5))</t>
+  </si>
+  <si>
+    <t>Methematical operation(*,/,+,-,%,**)</t>
+  </si>
+  <si>
+    <t>These always resulted inot integers</t>
+  </si>
+  <si>
+    <t>String in bash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use single quotes for pure string  '' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use double quotes if you want to use  variable in string. "". And it will keep space also. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo "environment  vairable paths will be $path and home is $HOME"   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">double quote and single paranthesies "$(command)" to pass the commands in a string. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Today date is $(date) and user is $(whoami)" </t>
+  </si>
+  <si>
+    <t>Another way to use command is backticks ``</t>
+  </si>
+  <si>
+    <t>echo today date is `date`</t>
+  </si>
+  <si>
+    <t>find . -iname trial.txt</t>
+  </si>
+  <si>
+    <t>It will do a case insensitive search of file trial.txt</t>
+  </si>
+  <si>
+    <t>find . -type f -size -20k</t>
+  </si>
+  <si>
+    <t>files less than 20kb size</t>
+  </si>
+  <si>
+    <t>find . -type f -size 20k</t>
+  </si>
+  <si>
+    <t>will find files with exactly 20kb in size</t>
+  </si>
+  <si>
+    <t>File time stamp accessing</t>
+  </si>
+  <si>
+    <t>ls -lu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ls -lc </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">we call this time </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mtime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> too</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Will refelect time when file was accessed last time. We call this tile a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">time </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>too</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">will refelect time when in  file any changes was done. We call it </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ctime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> too.</t>
+    </r>
+  </si>
+  <si>
+    <t>Searching with find</t>
+  </si>
+  <si>
+    <t>find . -min -30</t>
+  </si>
+  <si>
+    <t>files which were modified  less than 30 minutes ago</t>
+  </si>
+  <si>
+    <t>find . -min +30</t>
+  </si>
+  <si>
+    <t>files which were modified  more than 30 minutes ago</t>
+  </si>
+  <si>
+    <t>files which were accessed 30 minutes agao</t>
+  </si>
+  <si>
+    <t>files which were accessed  more than 30 minutes ago</t>
+  </si>
+  <si>
+    <t>find . -amin -30</t>
+  </si>
+  <si>
+    <t>find . -amin +30</t>
+  </si>
+  <si>
+    <t>Operators in Linux</t>
+  </si>
+  <si>
+    <t>find -not -empty -exec cp '{}' '{}_Backup' ';'</t>
+  </si>
+  <si>
+    <t>it will copy all the which are not empty with postfix _Backup</t>
+  </si>
+  <si>
+    <t>grep</t>
+  </si>
+  <si>
+    <t>grep search this pattern in the file</t>
+  </si>
+  <si>
+    <t>grep -w "cat" &lt;file name&gt;</t>
+  </si>
+  <si>
+    <t>w means here we are finding the only full word of "cat" not "catharal" B202</t>
+  </si>
+  <si>
+    <t>grep -ri "hive"</t>
+  </si>
+  <si>
+    <t>To search hive word in all the files of current directory. Here "i" indicate hive is case sensitive</t>
+  </si>
+  <si>
+    <t>grep -ri "hive" -c</t>
+  </si>
+  <si>
+    <t>"-c" means here it will give count of all hive (case insensitive manner) in all the existing files of current directory</t>
+  </si>
+  <si>
+    <t>will one give one line before and one line after the "hive" search</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> grep  "hive" &lt;file name&gt; -A1 B1</t>
+  </si>
+  <si>
+    <t>grep (regex Pattern) &lt;file name&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -934,6 +1178,12 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -992,7 +1242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1012,6 +1262,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1027,6 +1295,380 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7471</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3316941</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>754530</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31C57841-BE82-EAD5-3E66-60BF6AABA745}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7471" y="23883471"/>
+          <a:ext cx="3309470" cy="575235"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>When we</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> see files with ls -l command time which we see is the time which indicate when did we last time modified that file.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104588</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>97117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3264647</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>776941</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20C3E2A8-9DED-A838-9384-00A374BAF2E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104588" y="42268588"/>
+          <a:ext cx="3160059" cy="679824"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>-and </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>-or</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>       </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>-not      $ ! this also act as not</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>164353</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>104588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4684059</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>605117</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35D89D33-9D45-5A02-86AC-919DA5D49F0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3488765" y="42276059"/>
+          <a:ext cx="4519706" cy="500529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>find . -amin -60  -and -not  -name "*txt"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>find . -type f  -name "my_file.txt" -or -name "test.log"</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>14941</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>14941</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3862293" cy="1090705"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5992CDD-104D-0998-10D2-F933DC6BB16D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14941" y="44233353"/>
+          <a:ext cx="3862293" cy="1090705"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>-i here is for case insensitive  (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> will search hive, Hive, Hive, hiver,Hiverrer   all the combination)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>-w</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> here is for full word search only "hive" </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>- A1 with  word search will give next 1 line after also, (An)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>- B1 A1 with  word search will give next 1 line before also, (Bn)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>-m1 will limit the search results (mn) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1329,15 +1971,15 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:B159"/>
+  <dimension ref="A1:B205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B160" sqref="B160"/>
+    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A208" sqref="A208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="49.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="93.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1837,531 +2479,789 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>107</v>
+      <c r="A72" s="10" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>239</v>
+        <v>311</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>115</v>
+        <v>239</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>123</v>
+        <v>315</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>129</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B90" s="5"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>133</v>
+        <v>324</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>134</v>
+        <v>325</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>164</v>
+        <v>326</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>165</v>
+        <v>327</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>166</v>
+        <v>330</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>266</v>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>147</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>219</v>
+        <v>166</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>220</v>
+        <v>167</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>153</v>
+        <v>267</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>158</v>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>277</v>
+        <v>151</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>278</v>
+        <v>148</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>279</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>280</v>
+        <v>149</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>281</v>
+        <v>150</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>282</v>
+        <v>219</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>220</v>
+      </c>
+    </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>243</v>
+        <v>153</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>244</v>
+        <v>154</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>245</v>
+        <v>155</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>246</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>191</v>
+        <v>318</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>192</v>
+        <v>321</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>193</v>
+        <v>319</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>198</v>
+        <v>322</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="6"/>
-      <c r="B127"/>
+      <c r="A127" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B128"/>
+      <c r="A128" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>201</v>
+        <v>281</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>202</v>
+        <v>282</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A135" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A138" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>247</v>
+        <v>193</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>249</v>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>251</v>
-      </c>
+      <c r="A142" s="6"/>
+      <c r="B142"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>253</v>
-      </c>
+      <c r="A143" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B143"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>255</v>
+        <v>201</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>129</v>
+        <v>202</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="10" t="s">
-        <v>256</v>
+      <c r="A147" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>264</v>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A150" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A153" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>276</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B173" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B159" s="2" t="s">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B174" s="2" t="s">
         <v>287</v>
       </c>
     </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B185" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B186" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A190" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B190" s="14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="B191" s="15" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B197" s="18"/>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="3"/>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="10" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="93" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Linux commands.xlsx
+++ b/Linux commands.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shashankjain/Desktop/Imp_notes/Summary_notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753C9DEA-2B15-534F-98EE-88F39B258D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7AFF3D-BCC1-CA4D-8B9D-8569E31B4D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{3284BE38-9AAF-AA4C-96DF-D9DDDFFD684D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{3284BE38-9AAF-AA4C-96DF-D9DDDFFD684D}"/>
   </bookViews>
   <sheets>
     <sheet name="Linux Comands" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="378">
   <si>
     <t>Command</t>
   </si>
@@ -74,9 +74,6 @@
     <t>echo $PATH</t>
   </si>
   <si>
-    <t xml:space="preserve"> which (name of command)</t>
-  </si>
-  <si>
     <t>To reveal the path of executable file of command.</t>
   </si>
   <si>
@@ -98,21 +95,12 @@
     <t>Create directory</t>
   </si>
   <si>
-    <t>To see all the process</t>
-  </si>
-  <si>
     <t xml:space="preserve">top </t>
   </si>
   <si>
     <t>All processes in a nice formatted table</t>
   </si>
   <si>
-    <t>ls &gt; stdout.txt</t>
-  </si>
-  <si>
-    <t>To redirect the the output in stdout.txt file.</t>
-  </si>
-  <si>
     <t xml:space="preserve">cat </t>
   </si>
   <si>
@@ -140,9 +128,6 @@
     <t>mkdir 2&gt; stderr.txt</t>
   </si>
   <si>
-    <t>To redirect the the errir output in stderr.txt file.</t>
-  </si>
-  <si>
     <t>mkdir 1&gt;stdout.txt 2&gt;stderr.txt</t>
   </si>
   <si>
@@ -314,15 +299,9 @@
     <t>tail first.txt</t>
   </si>
   <si>
-    <t>head -n 3 first.txt</t>
-  </si>
-  <si>
     <t>You can read first 3 lines of the file</t>
   </si>
   <si>
-    <t>tail -n 3 first.txt</t>
-  </si>
-  <si>
     <t>You can read last 10 lines of the file</t>
   </si>
   <si>
@@ -335,12 +314,6 @@
     <t>We could go next page on the file.</t>
   </si>
   <si>
-    <t>ls -l usr/bin | grep ls</t>
-  </si>
-  <si>
-    <t>grep helps out to filter. Here we are filering ls name from directory usr/bin</t>
-  </si>
-  <si>
     <t>ln -s file4.txt file5.txt</t>
   </si>
   <si>
@@ -350,9 +323,6 @@
     <t>ln file4.txt file5.txt</t>
   </si>
   <si>
-    <t>li -li</t>
-  </si>
-  <si>
     <t>list files and folders with node numbers</t>
   </si>
   <si>
@@ -365,33 +335,6 @@
     <t>All files with pdf extention in current directory</t>
   </si>
   <si>
-    <t>find / -name "*pdf"</t>
-  </si>
-  <si>
-    <t>All files with pdf extention which are in subfolders of root directory</t>
-  </si>
-  <si>
-    <t>find</t>
-  </si>
-  <si>
-    <t>will returns list of all file and directories in the current path</t>
-  </si>
-  <si>
-    <t>Current path files and folders</t>
-  </si>
-  <si>
-    <t>find ..</t>
-  </si>
-  <si>
-    <t>parent folders files and folders</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> find . -name manage.py</t>
-  </si>
-  <si>
-    <t>all the files with the name manage.py</t>
-  </si>
-  <si>
     <t>All the files in the current directory</t>
   </si>
   <si>
@@ -413,27 +356,15 @@
     <t>files more than 1MB size with more file details</t>
   </si>
   <si>
-    <t>ls</t>
-  </si>
-  <si>
     <t>whoami</t>
   </si>
   <si>
     <t>user</t>
   </si>
   <si>
-    <t>useradd  DemoUser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adding a new DemoUser </t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve"> passwd DemoUser</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Adding a password</t>
   </si>
   <si>
@@ -446,9 +377,6 @@
     <t>Create new user with home directory</t>
   </si>
   <si>
-    <t xml:space="preserve">find . </t>
-  </si>
-  <si>
     <t>find . -type f</t>
   </si>
   <si>
@@ -467,9 +395,6 @@
     <t>find . -type f -size +20k -ls</t>
   </si>
   <si>
-    <t>find . -type f -size +20M -ls</t>
-  </si>
-  <si>
     <t>tar -cf archive.tar home/</t>
   </si>
   <si>
@@ -533,15 +458,9 @@
     <t>sort file1.txt</t>
   </si>
   <si>
-    <t>user add sj</t>
-  </si>
-  <si>
     <t>Adding new user</t>
   </si>
   <si>
-    <t>su sj</t>
-  </si>
-  <si>
     <t>to be log in as su user</t>
   </si>
   <si>
@@ -698,9 +617,6 @@
     <t>does same like more. But you when you press "j" it down one line with "k" it goes up 1 line.</t>
   </si>
   <si>
-    <t>gzip -d archive.tar</t>
-  </si>
-  <si>
     <t>To unzip a file</t>
   </si>
   <si>
@@ -710,9 +626,6 @@
     <t>Copy from hadoop system to local file system</t>
   </si>
   <si>
-    <t>hadoop fs -put &lt;hadoop_filename&gt; &lt;local_path&gt;</t>
-  </si>
-  <si>
     <t>hadoop fs -copyFromLocal &lt;local_filename&gt; &lt;hadoop_path&gt;</t>
   </si>
   <si>
@@ -728,9 +641,6 @@
     <t>hadoop fs -count &lt;directory path&gt;</t>
   </si>
   <si>
-    <t>hadoop fs -df</t>
-  </si>
-  <si>
     <t>size of the disk uage &amp; availabilty</t>
   </si>
   <si>
@@ -756,9 +666,6 @@
   </si>
   <si>
     <t>echo  "statement of command" | tee -a "trial.txt"</t>
-  </si>
-  <si>
-    <t>find .</t>
   </si>
   <si>
     <t>delete the whole current line</t>
@@ -1118,9 +1025,6 @@
     <t>grep</t>
   </si>
   <si>
-    <t>grep search this pattern in the file</t>
-  </si>
-  <si>
     <t>grep -w "cat" &lt;file name&gt;</t>
   </si>
   <si>
@@ -1146,13 +1050,205 @@
   </si>
   <si>
     <t>grep (regex Pattern) &lt;file name&gt;</t>
+  </si>
+  <si>
+    <t>grep search this pattern in the file (regex Pattern must be in double quotes)</t>
+  </si>
+  <si>
+    <t>output | grep</t>
+  </si>
+  <si>
+    <t>Here we can pipe the grep on any output ex. (find . |grep -i "\w*notes/Linux")</t>
+  </si>
+  <si>
+    <t>User Log in</t>
+  </si>
+  <si>
+    <t>File permissions</t>
+  </si>
+  <si>
+    <t>su sj   (su : substitute user)</t>
+  </si>
+  <si>
+    <t>unset &lt;environment_varaiblename&gt;</t>
+  </si>
+  <si>
+    <t>To delete the environment variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alias </t>
+  </si>
+  <si>
+    <t>alias l = "ls -la"</t>
+  </si>
+  <si>
+    <t>alias hello = "echo hello world"</t>
+  </si>
+  <si>
+    <t>alias</t>
+  </si>
+  <si>
+    <t>list of all the alias</t>
+  </si>
+  <si>
+    <t>du -h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to check the disk space taken </t>
+  </si>
+  <si>
+    <t>To redirect the the error output in stderr.txt file.</t>
+  </si>
+  <si>
+    <t>ls -lt</t>
+  </si>
+  <si>
+    <t>sorted files in terms of modified time</t>
+  </si>
+  <si>
+    <t>hadoop fs | hdfs dfs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hadoop fs  </t>
+  </si>
+  <si>
+    <t>will give all available hadoop commands</t>
+  </si>
+  <si>
+    <t>hadoop fs  -help ls</t>
+  </si>
+  <si>
+    <t>To see details of a specific command</t>
+  </si>
+  <si>
+    <t>hadoop fs -touchz dirorty_path/file_name</t>
+  </si>
+  <si>
+    <t>to create a new file</t>
+  </si>
+  <si>
+    <t>hadoop fs -get &lt;hadoop_filename&gt; &lt;local_path&gt;</t>
+  </si>
+  <si>
+    <t>cp</t>
+  </si>
+  <si>
+    <t>mv</t>
+  </si>
+  <si>
+    <t>work like normal linux</t>
+  </si>
+  <si>
+    <t>hadoop fs -df -h</t>
+  </si>
+  <si>
+    <t>disk usage</t>
+  </si>
+  <si>
+    <t>hdfs dfs -Ddfs.replication=3 -put &lt;local_filepath&gt;  &lt;hadoop_file_path&gt;</t>
+  </si>
+  <si>
+    <t>if have a important file and you want to increase it's replication (duplicates) number to provide high protection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hdfs fsck &lt;hadoop_file_path&gt;  -files -blocks -locations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">will give info about clusters , block, block storage locations. </t>
+  </si>
+  <si>
+    <t>hadoop fs -du -h</t>
+  </si>
+  <si>
+    <t>to remove the duplicate paths from PATH variable (-U is here for unique)</t>
+  </si>
+  <si>
+    <t>ls -li</t>
+  </si>
+  <si>
+    <t>find . -type f -size +1M -ls</t>
+  </si>
+  <si>
+    <t>hadoop jar /local_jar_path.jar &lt;input file in hdfs&gt; &lt;output file in hdfs&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how to run mapreduce job in hdfs </t>
+  </si>
+  <si>
+    <t>hadoop jar /Users/shashankjain/word_count.jar /user/temp/input_file.txt user/output/output_file.txt</t>
+  </si>
+  <si>
+    <t>useradd sj</t>
+  </si>
+  <si>
+    <t>Compression</t>
+  </si>
+  <si>
+    <t>gzip -d archive.tar.gz</t>
+  </si>
+  <si>
+    <t>typeset -U PATH</t>
+  </si>
+  <si>
+    <t>awk</t>
+  </si>
+  <si>
+    <t>utility of extract specific fieds either form a file or output</t>
+  </si>
+  <si>
+    <t>awk '{print $1, $3}' &lt;file_name&gt;</t>
+  </si>
+  <si>
+    <t>Extracting first and third column from the file</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ls -la | awk '{print $6,$7,$8,$9}'</t>
+  </si>
+  <si>
+    <t>Catching 6,7,8 9th column from the output</t>
+  </si>
+  <si>
+    <t>$NF will extract the last column</t>
+  </si>
+  <si>
+    <t>ls -la | awk '{print $1 $NF}'</t>
+  </si>
+  <si>
+    <t>awk -F, '{print $1, $3}' drinks.csv</t>
+  </si>
+  <si>
+    <t>will extract 1 &amp; 3 rd column and usefull when delimiter is not space. So,with "F" we can specify delimiter</t>
+  </si>
+  <si>
+    <t>awk -F, '{print $1, $3="third"}' drinks.csv</t>
+  </si>
+  <si>
+    <t>will replace the 3rd column with "third"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> awk 'length($0) &gt; 35' poem.txt</t>
+  </si>
+  <si>
+    <t>lines whose length is more than 35 bytes</t>
+  </si>
+  <si>
+    <t>which (name of command)</t>
+  </si>
+  <si>
+    <t>passwd sj</t>
+  </si>
+  <si>
+    <t>head -n3 first.txt</t>
+  </si>
+  <si>
+    <t>tail -n3 first.txt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1184,6 +1280,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1242,7 +1346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1280,6 +1384,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1301,15 +1409,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>7471</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>179295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>3316941</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>754530</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1376,15 +1484,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>104588</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>97117</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>3264647</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>776941</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1463,15 +1571,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>164353</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>104588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>4684059</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>605117</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1539,12 +1647,12 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>14941</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>198</xdr:row>
       <xdr:rowOff>14941</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3862293" cy="1090705"/>
+    <xdr:ext cx="3735294" cy="1449294"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="TextBox 4">
@@ -1558,13 +1666,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14941" y="44233353"/>
-          <a:ext cx="3862293" cy="1090705"/>
+          <a:off x="22412" y="44233353"/>
+          <a:ext cx="3735294" cy="1449294"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -1659,6 +1772,29 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>- I (will reveal proper words will ignore binaries if there are)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
@@ -1668,6 +1804,119 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>22413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3712882</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>7471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F8EB73C-2778-A4E5-13DF-9685191C4B52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="67235" y="28679589"/>
+          <a:ext cx="3645647" cy="941294"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>u -</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> user (owner of file or directory)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>g - group </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>o - others </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>a - all the above ( u,g,o  similar to 777)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>+ is for giving the permission</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>- is for removing the permission</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>= set a permission and remove for others</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1971,1291 +2220,1341 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:B205"/>
+  <dimension ref="B1:C220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A208" sqref="A208"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="186" zoomScaleNormal="186" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="93.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="49.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2" t="s">
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C26" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="2" t="s">
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="C30" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="2" t="s">
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="C35" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>56</v>
       </c>
+    </row>
+    <row r="39" spans="2:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B39" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B40" s="4"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>60</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>62</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>64</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B47" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>68</v>
       </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B47"/>
+      <c r="C47"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>74</v>
       </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="C50" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52"/>
-      <c r="B52"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B53" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B56" s="2" t="s">
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
+      <c r="C57" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B59" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B61" s="2" t="s">
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B60" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>90</v>
       </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B63" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B64" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B66" s="10" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B67" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B68" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B70" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B67" s="2" t="s">
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B71" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B72" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B68" s="2" t="s">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B74" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B75" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B76" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B77" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B69" s="4" t="s">
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B78" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B79" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C80" s="5"/>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B81" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B82" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B83" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B84" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B86" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B88" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B89" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="10" t="s">
+      <c r="C89" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B91" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B92" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B93" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B94" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B99" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B100" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B101" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B102" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B103" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B104" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B105" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B107" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B108" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B109" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B111" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B112" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B113" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B114" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B115" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B116" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B117" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B118" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B119" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B122" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B123" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B124" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B125" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="19" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B128" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B129" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" ht="110" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B133" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B134" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B135" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B136" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B137" s="6"/>
+      <c r="C137"/>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B138" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C138"/>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B139" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B140" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B141" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B142" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B143" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B145" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B148" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B149" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B150" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B152" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B153" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B154" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B155" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B157" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B158" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B159" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B160" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B161" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B164" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B165" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B168" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C169" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B171" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B172" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B173" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B174" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B175" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B176" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B179" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B180" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C180" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B181" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C181" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B183" s="10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B184" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B185" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C185" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B186" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="C186" s="15" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B187" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B191" s="10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C192" s="18"/>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B193" s="3"/>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B194" s="10" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B195" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B196" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B197" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B198" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" ht="122" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B200" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B201" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B204" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B205" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B90" s="5"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
+    <row r="206" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B206" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B91" s="2" t="s">
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B207" s="2" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
+      <c r="C207" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B92" s="2" t="s">
+    </row>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B210" s="2" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B93" s="2" t="s">
+      <c r="C210" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B101" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="B107" s="11" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A140" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="6"/>
-      <c r="B142"/>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B143"/>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A150" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A153" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B174" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B185" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B186" s="13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A190" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="B190" s="14" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="B191" s="15" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A192" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196" s="10" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B197" s="18"/>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198" s="3"/>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199" s="10" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" ht="93" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>343</v>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B213" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B214" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B215" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B216" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B217" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B218" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B219" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B220" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -3284,49 +3583,49 @@
   <sheetData>
     <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="B7" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -3341,66 +3640,66 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="B1" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="B7" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3413,88 +3712,170 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A2:B15"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A21" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.1640625" customWidth="1"/>
+    <col min="1" max="1" width="88.83203125" customWidth="1"/>
     <col min="2" max="2" width="117.83203125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>332</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>333</v>
       </c>
       <c r="B2" t="s">
-        <v>222</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>335</v>
       </c>
       <c r="B3" t="s">
-        <v>222</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="B5" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>226</v>
+        <v>339</v>
       </c>
       <c r="B6" t="s">
-        <v>225</v>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="B9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>229</v>
-      </c>
-      <c r="B10" t="s">
-        <v>230</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>231</v>
+        <v>343</v>
       </c>
       <c r="B13" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>233</v>
+        <v>349</v>
       </c>
       <c r="B14" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>235</v>
-      </c>
-      <c r="B15" t="s">
-        <v>236</v>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>203</v>
+      </c>
+      <c r="B17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>337</v>
+      </c>
+      <c r="B20" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>340</v>
+      </c>
+      <c r="B22" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>341</v>
+      </c>
+      <c r="B23" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="B26" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="B28" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>353</v>
+      </c>
+      <c r="B31" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/Linux commands.xlsx
+++ b/Linux commands.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shashankjain/Desktop/Imp_notes/Summary_notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7AFF3D-BCC1-CA4D-8B9D-8569E31B4D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BFC242-C6A6-A149-9E8F-36F87D9C5DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{3284BE38-9AAF-AA4C-96DF-D9DDDFFD684D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="399">
   <si>
     <t>Command</t>
   </si>
@@ -1242,6 +1242,69 @@
   </si>
   <si>
     <t>tail -n3 first.txt</t>
+  </si>
+  <si>
+    <t>grep -n &lt;file name&gt;</t>
+  </si>
+  <si>
+    <t>search pattern with line number</t>
+  </si>
+  <si>
+    <t>diff &lt;file-1&gt; &lt;file-2&gt;</t>
+  </si>
+  <si>
+    <t>will compare 2 files</t>
+  </si>
+  <si>
+    <t>cmd &lt;file-1&gt; &lt;file-2&gt;</t>
+  </si>
+  <si>
+    <t>will compare 2 files in binary</t>
+  </si>
+  <si>
+    <t>truncate -s &lt;file-name&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It will </t>
+  </si>
+  <si>
+    <t>cat file1 file2 fil3 &gt; bigfile.txt</t>
+  </si>
+  <si>
+    <t>To concatinate multiple file into a single file</t>
+  </si>
+  <si>
+    <t>split is use to split large file into smaller files. These file will generate their own name followed by main file name. ex. If main file name is &lt;School_list&gt; then other smaller file names wil be &lt;School_lista&gt;,&lt;School_listb&gt;..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cut -d: -f1 /etc/passwd | sort</t>
+  </si>
+  <si>
+    <t>To see list of users in OS</t>
+  </si>
+  <si>
+    <t>Information of users &amp; groups are stored in 1)/etc/passwd 2) /etc/group 3) /etc/shadow</t>
+  </si>
+  <si>
+    <t>usermod</t>
+  </si>
+  <si>
+    <t>To change user</t>
+  </si>
+  <si>
+    <t>to change the group</t>
+  </si>
+  <si>
+    <t>who</t>
+  </si>
+  <si>
+    <t>How many users are logged in your system</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this will tell you history of login. Time of log in. who gotta logged in. </t>
   </si>
 </sst>
 </file>
@@ -1346,7 +1409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1360,9 +1423,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -1411,13 +1471,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>7471</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>179295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3316941</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>754530</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1486,13 +1546,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>104588</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>97117</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3264647</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>776941</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1573,13 +1633,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>164353</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>104588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4684059</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>605117</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1649,7 +1709,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>198</xdr:row>
+      <xdr:row>204</xdr:row>
       <xdr:rowOff>14941</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3735294" cy="1449294"/>
@@ -1808,13 +1868,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>67235</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>22413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3712882</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>7471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1917,11 +1977,199 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>355054</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>286774</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88A215A5-C2C4-FE3F-3182-DC8183ACBEA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2184946" y="52984946"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95593</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>6828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3618818</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>949085</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7524CBB2-CB8F-AC0C-3AFC-9835680FC05B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1925485" y="52705000"/>
+          <a:ext cx="3523225" cy="942257"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>split -l 200 &lt; filename&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>       no. of lines (This file will be splited into multiple where each file will have 200 lines)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>662312</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>204839</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>669140</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>416506</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88EE1DB5-F39D-DEFA-7C20-E0799BD2F23C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2492204" y="52903011"/>
+          <a:ext cx="6828" cy="211667"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2209,7 +2457,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2220,10 +2468,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:C220"/>
+  <dimension ref="B1:C233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="186" zoomScaleNormal="186" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="186" zoomScaleNormal="186" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2233,11 +2481,11 @@
     <col min="3" max="3" width="78.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2681,7 +2929,7 @@
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="9" t="s">
         <v>292</v>
       </c>
     </row>
@@ -2817,7 +3065,7 @@
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="9" t="s">
         <v>317</v>
       </c>
     </row>
@@ -2829,11 +3077,11 @@
         <v>106</v>
       </c>
     </row>
-    <row r="90" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="11" t="s">
+    <row r="90" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C90" s="10" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2869,692 +3117,783 @@
         <v>140</v>
       </c>
     </row>
-    <row r="96" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="11" t="s">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B95" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B96" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B97" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B98" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="C96" s="11" t="s">
+      <c r="C99" s="10" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="97" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="11" t="s">
+    <row r="100" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C97" s="11" t="s">
+      <c r="C100" s="10" t="s">
         <v>235</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B99" s="10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B100" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B101" s="2" t="s">
-        <v>119</v>
+        <v>389</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>120</v>
+        <v>390</v>
       </c>
     </row>
     <row r="102" spans="2:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="B102" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B103" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>127</v>
+      <c r="B102" s="4" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B104" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>125</v>
+      <c r="B104" s="9" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B105" s="2" t="s">
-        <v>358</v>
+        <v>118</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B106" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" ht="34" x14ac:dyDescent="0.2">
       <c r="B107" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="108" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B108" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>40</v>
+        <v>123</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B109" s="2" t="s">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B111" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B110" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B112" s="2" t="s">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B113" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>133</v>
+        <v>39</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B114" s="2" t="s">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B115" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>331</v>
+        <v>42</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B116" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="117" spans="2:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="17" t="s">
-        <v>286</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B117" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>289</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B118" s="2" t="s">
-        <v>287</v>
+        <v>132</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>290</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B119" s="2" t="s">
-        <v>288</v>
+        <v>134</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B122" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B120" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B121" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B122" s="16" t="s">
+        <v>286</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>246</v>
+        <v>289</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B123" s="2" t="s">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>248</v>
+        <v>290</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B124" s="2" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B125" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="127" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="19" t="s">
-        <v>318</v>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B127" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B128" s="2" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B129" s="2" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="130" spans="2:3" ht="110" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B130" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="18" t="s">
+        <v>318</v>
+      </c>
+    </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B133" s="2" t="s">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>165</v>
+        <v>213</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B134" s="2" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="135" spans="2:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="B135" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B136" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B137" s="6"/>
-      <c r="C137"/>
-    </row>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" ht="110" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="138" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B138" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C138"/>
+      <c r="B138" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B139" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B140" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B141" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B142" s="6"/>
+      <c r="C142"/>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B143" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C143"/>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B144" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C144" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B140" s="2" t="s">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B145" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C145" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B141" s="2" t="s">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B146" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C146" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B142" s="2" t="s">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B147" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C147" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B143" s="2" t="s">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B148" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C148" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="145" spans="2:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="B145" s="9" t="s">
+    <row r="150" spans="2:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B150" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="C150" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="148" spans="2:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="B148" s="3" t="s">
+    <row r="153" spans="2:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B153" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="C153" s="4" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B149" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B150" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B152" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B153" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B154" s="2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B155" s="2" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B157" s="10" t="s">
-        <v>225</v>
+      <c r="B157" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B158" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B159" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B160" s="2" t="s">
-        <v>229</v>
+        <v>320</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B161" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>233</v>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B162" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B163" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B164" s="2" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B165" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B166" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B169" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B170" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C170" s="2" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B168" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C169" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B171" s="10" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B172" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B173" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C174" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B176" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B177" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B178" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C178" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B174" s="2" t="s">
+    <row r="179" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B179" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C179" s="2" t="s">
         <v>263</v>
-      </c>
-    </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B175" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B176" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B179" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B180" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C180" s="13">
-        <v>4</v>
+        <v>264</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B181" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B184" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B185" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C185" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B186" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C181" s="13">
+      <c r="C186" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B183" s="10" t="s">
+    <row r="188" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B188" s="9" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B184" s="2" t="s">
+    <row r="189" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B189" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="185" spans="2:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="B185" s="4" t="s">
+    <row r="190" spans="2:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B190" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C185" s="14" t="s">
+      <c r="C190" s="13" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="186" spans="2:3" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B186" s="16" t="s">
+    <row r="191" spans="2:3" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B191" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="C186" s="15" t="s">
+      <c r="C191" s="14" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B187" s="2" t="s">
+    <row r="192" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B192" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="C192" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B191" s="10" t="s">
+    <row r="196" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B196" s="9" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="192" spans="2:3" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C192" s="18"/>
-    </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B193" s="3"/>
-    </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B194" s="10" t="s">
+    <row r="197" spans="2:3" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C197" s="17"/>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B198" s="3"/>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B199" s="9" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B195" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B196" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B197" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B198" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="199" spans="2:3" ht="122" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="200" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B200" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B201" s="2" t="s">
-        <v>315</v>
+        <v>378</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>316</v>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B202" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B203" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B204" s="10" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B205" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
+      <c r="B204" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" ht="122" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="206" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B206" s="2" t="s">
-        <v>324</v>
+        <v>312</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B207" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B210" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B211" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B212" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B213" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="C213" s="2" t="s">
         <v>326</v>
-      </c>
-    </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B210" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B213" s="10" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B214" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B215" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B216" s="2" t="s">
-        <v>364</v>
+        <v>327</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B217" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B218" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>369</v>
+        <v>328</v>
       </c>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B219" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>371</v>
+      <c r="B219" s="9" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B220" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B221" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B222" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B223" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B224" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B225" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B226" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C220" s="2" t="s">
+      <c r="C226" s="2" t="s">
         <v>373</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B228" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B229" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B230" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B232" s="14"/>
+      <c r="C232" s="15" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B233" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -3850,7 +4189,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="21" t="s">
         <v>345</v>
       </c>
       <c r="B26" t="s">
@@ -3858,7 +4197,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="21" t="s">
         <v>347</v>
       </c>
       <c r="B28" t="s">
